--- a/Mifos Automation Excels/Client/Scenario5-Chaithanyaprod-TR2-ONTIME-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/Scenario5-Chaithanyaprod-TR2-ONTIME-Makerepayment2.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -594,7 +594,7 @@
         <v>4550.1000000000004</v>
       </c>
       <c r="F3" s="7">
-        <v>3223.47</v>
+        <v>2986.88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2849</v>
+        <v>217</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2848</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2847</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2846</v>
+        <v>212</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
